--- a/Best LBs and UBs.xlsx
+++ b/Best LBs and UBs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tilburgu-my.sharepoint.com/personal/m_j_barkel_tilburguniversity_edu/Documents/Documents/School/PhD projects/AF for BPPMCF/Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD81AD0-E3F7-4D87-8509-20A0843E7DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{FFD81AD0-E3F7-4D87-8509-20A0843E7DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CDB0D8D-EC54-4656-82C6-5597D277A6E5}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5730" windowWidth="29040" windowHeight="15840" xr2:uid="{D709F813-AD37-4F9A-A20C-D7AFA4034C05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Old instances" sheetId="2" r:id="rId1"/>
+    <sheet name="New instances" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="743">
   <si>
     <t>Instance</t>
   </si>
@@ -1515,6 +1516,756 @@
   </si>
   <si>
     <t>Dataset 5*/t501_19.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-8/70-8-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-8/70-8-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-8/70-8-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-8/70-8-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-8/70-8-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-8/70-8-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-8/70-8-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-8/70-8-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-8/70-8-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-8/70-8-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-10/70-10-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-10/70-10-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-10/70-10-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-10/70-10-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-10/70-10-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-10/70-10-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-10/70-10-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-10/70-10-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-10/70-10-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-10/70-10-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-12/70-12-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-12/70-12-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-12/70-12-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-12/70-12-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-12/70-12-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-12/70-12-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-12/70-12-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-12/70-12-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-12/70-12-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/70-12/70-12-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-8/80-8-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-8/80-8-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-8/80-8-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-8/80-8-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-8/80-8-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-8/80-8-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-8/80-8-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-8/80-8-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-8/80-8-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-8/80-8-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-10/80-10-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-10/80-10-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-10/80-10-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-10/80-10-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-10/80-10-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-10/80-10-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-10/80-10-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-10/80-10-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-10/80-10-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-10/80-10-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-12/80-12-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-12/80-12-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-12/80-12-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-12/80-12-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-12/80-12-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-12/80-12-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-12/80-12-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-12/80-12-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-12/80-12-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/80-12/80-12-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-8/90-8-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-8/90-8-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-8/90-8-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-8/90-8-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-8/90-8-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-8/90-8-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-8/90-8-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-8/90-8-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-8/90-8-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-8/90-8-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-10/90-10-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-10/90-10-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-10/90-10-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-10/90-10-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-10/90-10-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-10/90-10-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-10/90-10-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-10/90-10-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-10/90-10-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-10/90-10-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-12/90-12-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-12/90-12-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-12/90-12-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-12/90-12-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-12/90-12-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-12/90-12-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-12/90-12-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-12/90-12-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-12/90-12-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/90-12/90-12-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-8/100-8-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-8/100-8-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-8/100-8-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-8/100-8-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-8/100-8-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-8/100-8-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-8/100-8-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-8/100-8-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-8/100-8-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-8/100-8-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-10/100-10-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-10/100-10-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-10/100-10-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-10/100-10-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-10/100-10-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-10/100-10-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-10/100-10-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-10/100-10-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-10/100-10-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-10/100-10-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-12/100-12-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-12/100-12-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-12/100-12-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-12/100-12-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-12/100-12-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-12/100-12-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-12/100-12-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-12/100-12-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-12/100-12-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 1/100-12/100-12-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/120-2/120-2-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/120-2/120-2-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/120-2/120-2-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/120-2/120-2-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/120-2/120-2-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/120-2/120-2-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/120-2/120-2-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/120-2/120-2-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/120-2/120-2-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/120-2/120-2-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/250-2/250-2-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/250-2/250-2-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/250-2/250-2-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/250-2/250-2-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/250-2/250-2-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/250-2/250-2-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/250-2/250-2-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/250-2/250-2-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/250-2/250-2-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/250-2/250-2-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/500-2/500-2-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/500-2/500-2-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/500-2/500-2-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/500-2/500-2-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/500-2/500-2-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/500-2/500-2-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/500-2/500-2-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/500-2/500-2-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/500-2/500-2-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/500-2/500-2-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/600-2/600-2-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/600-2/600-2-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/600-2/600-2-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/600-2/600-2-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/600-2/600-2-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/600-2/600-2-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/600-2/600-2-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/600-2/600-2-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/600-2/600-2-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/600-2/600-2-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/700-2/700-2-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/700-2/700-2-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/700-2/700-2-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/700-2/700-2-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/700-2/700-2-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/700-2/700-2-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/700-2/700-2-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/700-2/700-2-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/700-2/700-2-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 2/700-2/700-2-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/10-100/10-100-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/10-100/10-100-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/10-100/10-100-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/10-100/10-100-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/10-100/10-100-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/10-100/10-100-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/10-100/10-100-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/10-100/10-100-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/10-100/10-100-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/10-100/10-100-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/15-100/15-100-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/15-100/15-100-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/15-100/15-100-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/15-100/15-100-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/15-100/15-100-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/15-100/15-100-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/15-100/15-100-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/15-100/15-100-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/15-100/15-100-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 3/15-100/15-100-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-400/50-400-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-400/50-400-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-400/50-400-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-400/50-400-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-400/50-400-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-400/50-400-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-400/50-400-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-400/50-400-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-400/50-400-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-400/50-400-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-500/50-500-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-500/50-500-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-500/50-500-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-500/50-500-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-500/50-500-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-500/50-500-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-500/50-500-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-500/50-500-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-500/50-500-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/50-500/50-500-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-400/75-400-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-400/75-400-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-400/75-400-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-400/75-400-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-400/75-400-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-400/75-400-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-400/75-400-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-400/75-400-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-400/75-400-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-400/75-400-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-500/75-500-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-500/75-500-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-500/75-500-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-500/75-500-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-500/75-500-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-500/75-500-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-500/75-500-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-500/75-500-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-500/75-500-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/75-500/75-500-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-400/100-400-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-400/100-400-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-400/100-400-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-400/100-400-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-400/100-400-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-400/100-400-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-400/100-400-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-400/100-400-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-400/100-400-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-400/100-400-10.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-500/100-500-1.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-500/100-500-2.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-500/100-500-3.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-500/100-500-4.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-500/100-500-5.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-500/100-500-6.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-500/100-500-7.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-500/100-500-8.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-500/100-500-9.txt</t>
+  </si>
+  <si>
+    <t>Dataset 4/100-500/100-500-10.txt</t>
   </si>
 </sst>
 </file>
@@ -1909,11 +2660,4551 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F3F2CD-6D42-4B68-888C-B0F62E863B8F}">
-  <dimension ref="A1:Y491"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366E1986-F8C2-435C-B419-76A02F0DCF91}">
+  <dimension ref="A1:H411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2">
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B5">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B6">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7">
+        <v>71</v>
+      </c>
+      <c r="C7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B12">
+        <v>78</v>
+      </c>
+      <c r="C12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B13">
+        <v>81</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>505</v>
+      </c>
+      <c r="B14">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>506</v>
+      </c>
+      <c r="B15">
+        <v>79</v>
+      </c>
+      <c r="C15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B16">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17">
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>509</v>
+      </c>
+      <c r="B18">
+        <v>81</v>
+      </c>
+      <c r="C18">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>510</v>
+      </c>
+      <c r="B19">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>511</v>
+      </c>
+      <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>512</v>
+      </c>
+      <c r="B21">
+        <v>82</v>
+      </c>
+      <c r="C21">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>513</v>
+      </c>
+      <c r="B22">
+        <v>78</v>
+      </c>
+      <c r="C22">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>514</v>
+      </c>
+      <c r="B23">
+        <v>84</v>
+      </c>
+      <c r="C23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>515</v>
+      </c>
+      <c r="B24">
+        <v>79</v>
+      </c>
+      <c r="C24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>516</v>
+      </c>
+      <c r="B25">
+        <v>81</v>
+      </c>
+      <c r="C25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B26">
+        <v>79</v>
+      </c>
+      <c r="C26">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>518</v>
+      </c>
+      <c r="B27">
+        <v>81</v>
+      </c>
+      <c r="C27">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>519</v>
+      </c>
+      <c r="B28">
+        <v>84</v>
+      </c>
+      <c r="C28">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>520</v>
+      </c>
+      <c r="B29">
+        <v>81</v>
+      </c>
+      <c r="C29">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>521</v>
+      </c>
+      <c r="B30">
+        <v>79</v>
+      </c>
+      <c r="C30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>522</v>
+      </c>
+      <c r="B31">
+        <v>83</v>
+      </c>
+      <c r="C31">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>523</v>
+      </c>
+      <c r="B32">
+        <v>86</v>
+      </c>
+      <c r="C32">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>524</v>
+      </c>
+      <c r="B33">
+        <v>84</v>
+      </c>
+      <c r="C33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>525</v>
+      </c>
+      <c r="B34">
+        <v>86</v>
+      </c>
+      <c r="C34">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>526</v>
+      </c>
+      <c r="B35">
+        <v>89</v>
+      </c>
+      <c r="C35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>527</v>
+      </c>
+      <c r="B36">
+        <v>87</v>
+      </c>
+      <c r="C36">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>528</v>
+      </c>
+      <c r="B37">
+        <v>82</v>
+      </c>
+      <c r="C37">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>529</v>
+      </c>
+      <c r="B38">
+        <v>85</v>
+      </c>
+      <c r="C38">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>530</v>
+      </c>
+      <c r="B39">
+        <v>87</v>
+      </c>
+      <c r="C39">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>531</v>
+      </c>
+      <c r="B40">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>532</v>
+      </c>
+      <c r="B41">
+        <v>87</v>
+      </c>
+      <c r="C41">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>533</v>
+      </c>
+      <c r="B42">
+        <v>88</v>
+      </c>
+      <c r="C42">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>534</v>
+      </c>
+      <c r="B43">
+        <v>89</v>
+      </c>
+      <c r="C43">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>535</v>
+      </c>
+      <c r="B44">
+        <v>84</v>
+      </c>
+      <c r="C44">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>536</v>
+      </c>
+      <c r="B45">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>537</v>
+      </c>
+      <c r="B46">
+        <v>97</v>
+      </c>
+      <c r="C46">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>538</v>
+      </c>
+      <c r="B47">
+        <v>91</v>
+      </c>
+      <c r="C47">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>539</v>
+      </c>
+      <c r="B48">
+        <v>91</v>
+      </c>
+      <c r="C48">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>540</v>
+      </c>
+      <c r="B49">
+        <v>90</v>
+      </c>
+      <c r="C49">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>541</v>
+      </c>
+      <c r="B50">
+        <v>85</v>
+      </c>
+      <c r="C50">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>542</v>
+      </c>
+      <c r="B51">
+        <v>90</v>
+      </c>
+      <c r="C51">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>543</v>
+      </c>
+      <c r="B52">
+        <v>94</v>
+      </c>
+      <c r="C52">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>544</v>
+      </c>
+      <c r="B53">
+        <v>97</v>
+      </c>
+      <c r="C53">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>545</v>
+      </c>
+      <c r="B54">
+        <v>102</v>
+      </c>
+      <c r="C54">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>546</v>
+      </c>
+      <c r="B55">
+        <v>94</v>
+      </c>
+      <c r="C55">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>547</v>
+      </c>
+      <c r="B56">
+        <v>93</v>
+      </c>
+      <c r="C56">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>548</v>
+      </c>
+      <c r="B57">
+        <v>92</v>
+      </c>
+      <c r="C57">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>549</v>
+      </c>
+      <c r="B58">
+        <v>88</v>
+      </c>
+      <c r="C58">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>550</v>
+      </c>
+      <c r="B59">
+        <v>96</v>
+      </c>
+      <c r="C59">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>551</v>
+      </c>
+      <c r="B60">
+        <v>98</v>
+      </c>
+      <c r="C60">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>552</v>
+      </c>
+      <c r="B61">
+        <v>91</v>
+      </c>
+      <c r="C61">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>553</v>
+      </c>
+      <c r="B62">
+        <v>92</v>
+      </c>
+      <c r="C62">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>554</v>
+      </c>
+      <c r="B63">
+        <v>100</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>555</v>
+      </c>
+      <c r="B64">
+        <v>98</v>
+      </c>
+      <c r="C64">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>556</v>
+      </c>
+      <c r="B65">
+        <v>102</v>
+      </c>
+      <c r="C65">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>557</v>
+      </c>
+      <c r="B66">
+        <v>97</v>
+      </c>
+      <c r="C66">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>558</v>
+      </c>
+      <c r="B67">
+        <v>98</v>
+      </c>
+      <c r="C67">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>559</v>
+      </c>
+      <c r="B68">
+        <v>92</v>
+      </c>
+      <c r="C68">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>560</v>
+      </c>
+      <c r="B69">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>561</v>
+      </c>
+      <c r="B70">
+        <v>98</v>
+      </c>
+      <c r="C70">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>562</v>
+      </c>
+      <c r="B71">
+        <v>92</v>
+      </c>
+      <c r="C71">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>563</v>
+      </c>
+      <c r="B72">
+        <v>99</v>
+      </c>
+      <c r="C72">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>564</v>
+      </c>
+      <c r="B73">
+        <v>101</v>
+      </c>
+      <c r="C73">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>565</v>
+      </c>
+      <c r="B74">
+        <v>101</v>
+      </c>
+      <c r="C74">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>566</v>
+      </c>
+      <c r="B75">
+        <v>97</v>
+      </c>
+      <c r="C75">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>567</v>
+      </c>
+      <c r="B76">
+        <v>99</v>
+      </c>
+      <c r="C76">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>568</v>
+      </c>
+      <c r="B77">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>569</v>
+      </c>
+      <c r="B78">
+        <v>99</v>
+      </c>
+      <c r="C78">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>570</v>
+      </c>
+      <c r="B79">
+        <v>98</v>
+      </c>
+      <c r="C79">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>571</v>
+      </c>
+      <c r="B80">
+        <v>102</v>
+      </c>
+      <c r="C80">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>572</v>
+      </c>
+      <c r="B81">
+        <v>104</v>
+      </c>
+      <c r="C81">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>573</v>
+      </c>
+      <c r="B82">
+        <v>109</v>
+      </c>
+      <c r="C82">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>574</v>
+      </c>
+      <c r="B83">
+        <v>106</v>
+      </c>
+      <c r="C83">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>575</v>
+      </c>
+      <c r="B84">
+        <v>110</v>
+      </c>
+      <c r="C84">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>576</v>
+      </c>
+      <c r="B85">
+        <v>103</v>
+      </c>
+      <c r="C85">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>577</v>
+      </c>
+      <c r="B86">
+        <v>106</v>
+      </c>
+      <c r="C86">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>578</v>
+      </c>
+      <c r="B87">
+        <v>108</v>
+      </c>
+      <c r="C87">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>579</v>
+      </c>
+      <c r="B88">
+        <v>109</v>
+      </c>
+      <c r="C88">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>580</v>
+      </c>
+      <c r="B89">
+        <v>108</v>
+      </c>
+      <c r="C89">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>581</v>
+      </c>
+      <c r="B90">
+        <v>106</v>
+      </c>
+      <c r="C90">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>582</v>
+      </c>
+      <c r="B91">
+        <v>107</v>
+      </c>
+      <c r="C91">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>583</v>
+      </c>
+      <c r="B92">
+        <v>107</v>
+      </c>
+      <c r="C92">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>584</v>
+      </c>
+      <c r="B93">
+        <v>110</v>
+      </c>
+      <c r="C93">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>585</v>
+      </c>
+      <c r="B94">
+        <v>109</v>
+      </c>
+      <c r="C94">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>586</v>
+      </c>
+      <c r="B95">
+        <v>106</v>
+      </c>
+      <c r="C95">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>587</v>
+      </c>
+      <c r="B96">
+        <v>111</v>
+      </c>
+      <c r="C96">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>588</v>
+      </c>
+      <c r="B97">
+        <v>105</v>
+      </c>
+      <c r="C97">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>589</v>
+      </c>
+      <c r="B98">
+        <v>109</v>
+      </c>
+      <c r="C98">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>590</v>
+      </c>
+      <c r="B99">
+        <v>107</v>
+      </c>
+      <c r="C99">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>591</v>
+      </c>
+      <c r="B100">
+        <v>112</v>
+      </c>
+      <c r="C100">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>592</v>
+      </c>
+      <c r="B101">
+        <v>104</v>
+      </c>
+      <c r="C101">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>593</v>
+      </c>
+      <c r="B102">
+        <v>114</v>
+      </c>
+      <c r="C102">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>594</v>
+      </c>
+      <c r="B103">
+        <v>111</v>
+      </c>
+      <c r="C103">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>595</v>
+      </c>
+      <c r="B104">
+        <v>110</v>
+      </c>
+      <c r="C104">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>596</v>
+      </c>
+      <c r="B105">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>597</v>
+      </c>
+      <c r="B106">
+        <v>111</v>
+      </c>
+      <c r="C106">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>598</v>
+      </c>
+      <c r="B107">
+        <v>115</v>
+      </c>
+      <c r="C107">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>599</v>
+      </c>
+      <c r="B108">
+        <v>111</v>
+      </c>
+      <c r="C108">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>600</v>
+      </c>
+      <c r="B109">
+        <v>114</v>
+      </c>
+      <c r="C109">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>601</v>
+      </c>
+      <c r="B110">
+        <v>114</v>
+      </c>
+      <c r="C110">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>602</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>603</v>
+      </c>
+      <c r="B112">
+        <v>118</v>
+      </c>
+      <c r="C112">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>604</v>
+      </c>
+      <c r="B113">
+        <v>122</v>
+      </c>
+      <c r="C113">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>605</v>
+      </c>
+      <c r="B114">
+        <v>119</v>
+      </c>
+      <c r="C114">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>606</v>
+      </c>
+      <c r="B115">
+        <v>120</v>
+      </c>
+      <c r="C115">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>607</v>
+      </c>
+      <c r="B116">
+        <v>112</v>
+      </c>
+      <c r="C116">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>608</v>
+      </c>
+      <c r="B117">
+        <v>122</v>
+      </c>
+      <c r="C117">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>609</v>
+      </c>
+      <c r="B118">
+        <v>116</v>
+      </c>
+      <c r="C118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>610</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>611</v>
+      </c>
+      <c r="B120">
+        <v>122</v>
+      </c>
+      <c r="C120">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>612</v>
+      </c>
+      <c r="B121">
+        <v>116</v>
+      </c>
+      <c r="C121">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>613</v>
+      </c>
+      <c r="B122">
+        <v>50</v>
+      </c>
+      <c r="C122">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>614</v>
+      </c>
+      <c r="B123">
+        <v>52</v>
+      </c>
+      <c r="C123">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>615</v>
+      </c>
+      <c r="B124">
+        <v>50</v>
+      </c>
+      <c r="C124">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>616</v>
+      </c>
+      <c r="B125">
+        <v>47</v>
+      </c>
+      <c r="C125">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>617</v>
+      </c>
+      <c r="B126">
+        <v>52</v>
+      </c>
+      <c r="C126">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>618</v>
+      </c>
+      <c r="B127">
+        <v>48</v>
+      </c>
+      <c r="C127">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>619</v>
+      </c>
+      <c r="B128">
+        <v>48</v>
+      </c>
+      <c r="C128">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>620</v>
+      </c>
+      <c r="B129">
+        <v>48</v>
+      </c>
+      <c r="C129">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>621</v>
+      </c>
+      <c r="B130">
+        <v>48</v>
+      </c>
+      <c r="C130">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>622</v>
+      </c>
+      <c r="B131">
+        <v>48</v>
+      </c>
+      <c r="C131">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>623</v>
+      </c>
+      <c r="B132">
+        <v>98</v>
+      </c>
+      <c r="C132">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>624</v>
+      </c>
+      <c r="B133">
+        <v>101</v>
+      </c>
+      <c r="C133">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>625</v>
+      </c>
+      <c r="B134">
+        <v>104</v>
+      </c>
+      <c r="C134">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>626</v>
+      </c>
+      <c r="B135">
+        <v>102</v>
+      </c>
+      <c r="C135">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>627</v>
+      </c>
+      <c r="B136">
+        <v>102</v>
+      </c>
+      <c r="C136">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>628</v>
+      </c>
+      <c r="B137">
+        <v>101</v>
+      </c>
+      <c r="C137">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>629</v>
+      </c>
+      <c r="B138">
+        <v>103</v>
+      </c>
+      <c r="C138">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>630</v>
+      </c>
+      <c r="B139">
+        <v>100</v>
+      </c>
+      <c r="C139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>631</v>
+      </c>
+      <c r="B140">
+        <v>101</v>
+      </c>
+      <c r="C140">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>632</v>
+      </c>
+      <c r="B141">
+        <v>102</v>
+      </c>
+      <c r="C141">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>633</v>
+      </c>
+      <c r="B142">
+        <v>201</v>
+      </c>
+      <c r="C142">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>634</v>
+      </c>
+      <c r="B143">
+        <v>195</v>
+      </c>
+      <c r="C143">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>635</v>
+      </c>
+      <c r="B144">
+        <v>203</v>
+      </c>
+      <c r="C144">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>636</v>
+      </c>
+      <c r="B145">
+        <v>203</v>
+      </c>
+      <c r="C145">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>637</v>
+      </c>
+      <c r="B146">
+        <v>199</v>
+      </c>
+      <c r="C146">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>638</v>
+      </c>
+      <c r="B147">
+        <v>202</v>
+      </c>
+      <c r="C147">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>639</v>
+      </c>
+      <c r="B148">
+        <v>199</v>
+      </c>
+      <c r="C148">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>640</v>
+      </c>
+      <c r="B149">
+        <v>200</v>
+      </c>
+      <c r="C149">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>641</v>
+      </c>
+      <c r="B150">
+        <v>203</v>
+      </c>
+      <c r="C150">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>642</v>
+      </c>
+      <c r="B151">
+        <v>197</v>
+      </c>
+      <c r="C151">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>643</v>
+      </c>
+      <c r="B152">
+        <v>238</v>
+      </c>
+      <c r="C152">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>644</v>
+      </c>
+      <c r="B153">
+        <v>238</v>
+      </c>
+      <c r="C153">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>645</v>
+      </c>
+      <c r="B154">
+        <v>239</v>
+      </c>
+      <c r="C154">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>646</v>
+      </c>
+      <c r="B155">
+        <v>247</v>
+      </c>
+      <c r="C155">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>647</v>
+      </c>
+      <c r="B156">
+        <v>244</v>
+      </c>
+      <c r="C156">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>648</v>
+      </c>
+      <c r="B157">
+        <v>243</v>
+      </c>
+      <c r="C157">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>649</v>
+      </c>
+      <c r="B158">
+        <v>242</v>
+      </c>
+      <c r="C158">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>650</v>
+      </c>
+      <c r="B159">
+        <v>235</v>
+      </c>
+      <c r="C159">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>651</v>
+      </c>
+      <c r="B160">
+        <v>239</v>
+      </c>
+      <c r="C160">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>652</v>
+      </c>
+      <c r="B161">
+        <v>241</v>
+      </c>
+      <c r="C161">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>653</v>
+      </c>
+      <c r="B162">
+        <v>285</v>
+      </c>
+      <c r="C162">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>654</v>
+      </c>
+      <c r="B163">
+        <v>279</v>
+      </c>
+      <c r="C163">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>655</v>
+      </c>
+      <c r="B164">
+        <v>283</v>
+      </c>
+      <c r="C164">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>656</v>
+      </c>
+      <c r="B165">
+        <v>275</v>
+      </c>
+      <c r="C165">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>657</v>
+      </c>
+      <c r="B166">
+        <v>281</v>
+      </c>
+      <c r="C166">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>658</v>
+      </c>
+      <c r="B167">
+        <v>278</v>
+      </c>
+      <c r="C167">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>659</v>
+      </c>
+      <c r="B168">
+        <v>295</v>
+      </c>
+      <c r="C168">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>660</v>
+      </c>
+      <c r="B169">
+        <v>278</v>
+      </c>
+      <c r="C169">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>661</v>
+      </c>
+      <c r="B170">
+        <v>286</v>
+      </c>
+      <c r="C170">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>662</v>
+      </c>
+      <c r="B171">
+        <v>283</v>
+      </c>
+      <c r="C171">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>663</v>
+      </c>
+      <c r="B172">
+        <v>11</v>
+      </c>
+      <c r="C172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>664</v>
+      </c>
+      <c r="B173">
+        <v>10</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>665</v>
+      </c>
+      <c r="B174">
+        <v>10</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>666</v>
+      </c>
+      <c r="B175">
+        <v>11</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>667</v>
+      </c>
+      <c r="B176">
+        <v>10</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>668</v>
+      </c>
+      <c r="B177">
+        <v>10</v>
+      </c>
+      <c r="C177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>669</v>
+      </c>
+      <c r="B178">
+        <v>11</v>
+      </c>
+      <c r="C178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>670</v>
+      </c>
+      <c r="B179">
+        <v>11</v>
+      </c>
+      <c r="C179">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>671</v>
+      </c>
+      <c r="B180">
+        <v>11</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>672</v>
+      </c>
+      <c r="B181">
+        <v>10</v>
+      </c>
+      <c r="C181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>663</v>
+      </c>
+      <c r="B182">
+        <v>12</v>
+      </c>
+      <c r="C182">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>664</v>
+      </c>
+      <c r="B183">
+        <v>11</v>
+      </c>
+      <c r="C183">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>665</v>
+      </c>
+      <c r="B184">
+        <v>13</v>
+      </c>
+      <c r="C184">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>666</v>
+      </c>
+      <c r="B185">
+        <v>12</v>
+      </c>
+      <c r="C185">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>667</v>
+      </c>
+      <c r="B186">
+        <v>12</v>
+      </c>
+      <c r="C186">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>668</v>
+      </c>
+      <c r="B187">
+        <v>11</v>
+      </c>
+      <c r="C187">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>669</v>
+      </c>
+      <c r="B188">
+        <v>12</v>
+      </c>
+      <c r="C188">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>670</v>
+      </c>
+      <c r="B189">
+        <v>12</v>
+      </c>
+      <c r="C189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>671</v>
+      </c>
+      <c r="B190">
+        <v>12</v>
+      </c>
+      <c r="C190">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>672</v>
+      </c>
+      <c r="B191">
+        <v>12</v>
+      </c>
+      <c r="C191">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>663</v>
+      </c>
+      <c r="B192">
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>664</v>
+      </c>
+      <c r="B193">
+        <v>13</v>
+      </c>
+      <c r="C193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>665</v>
+      </c>
+      <c r="B194">
+        <v>12</v>
+      </c>
+      <c r="C194">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>666</v>
+      </c>
+      <c r="B195">
+        <v>12</v>
+      </c>
+      <c r="C195">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>667</v>
+      </c>
+      <c r="B196">
+        <v>11</v>
+      </c>
+      <c r="C196">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>668</v>
+      </c>
+      <c r="B197">
+        <v>14</v>
+      </c>
+      <c r="C197">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>669</v>
+      </c>
+      <c r="B198">
+        <v>13</v>
+      </c>
+      <c r="C198">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>670</v>
+      </c>
+      <c r="B199">
+        <v>11</v>
+      </c>
+      <c r="C199">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>671</v>
+      </c>
+      <c r="B200">
+        <v>13</v>
+      </c>
+      <c r="C200">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>672</v>
+      </c>
+      <c r="B201">
+        <v>13</v>
+      </c>
+      <c r="C201">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>673</v>
+      </c>
+      <c r="B202">
+        <v>14</v>
+      </c>
+      <c r="C202">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>674</v>
+      </c>
+      <c r="B203">
+        <v>14</v>
+      </c>
+      <c r="C203">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>675</v>
+      </c>
+      <c r="B204">
+        <v>15</v>
+      </c>
+      <c r="C204">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>676</v>
+      </c>
+      <c r="B205">
+        <v>15</v>
+      </c>
+      <c r="C205">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>677</v>
+      </c>
+      <c r="B206">
+        <v>15</v>
+      </c>
+      <c r="C206">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>678</v>
+      </c>
+      <c r="B207">
+        <v>15</v>
+      </c>
+      <c r="C207">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>679</v>
+      </c>
+      <c r="B208">
+        <v>14</v>
+      </c>
+      <c r="C208">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>680</v>
+      </c>
+      <c r="B209">
+        <v>15</v>
+      </c>
+      <c r="C209">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>681</v>
+      </c>
+      <c r="B210">
+        <v>14</v>
+      </c>
+      <c r="C210">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>682</v>
+      </c>
+      <c r="B211">
+        <v>15</v>
+      </c>
+      <c r="C211">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>673</v>
+      </c>
+      <c r="B212">
+        <v>16</v>
+      </c>
+      <c r="C212">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>674</v>
+      </c>
+      <c r="B213">
+        <v>16</v>
+      </c>
+      <c r="C213">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>675</v>
+      </c>
+      <c r="B214">
+        <v>16</v>
+      </c>
+      <c r="C214">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>676</v>
+      </c>
+      <c r="B215">
+        <v>16</v>
+      </c>
+      <c r="C215">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>677</v>
+      </c>
+      <c r="B216">
+        <v>16</v>
+      </c>
+      <c r="C216">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>678</v>
+      </c>
+      <c r="B217">
+        <v>15</v>
+      </c>
+      <c r="C217">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>679</v>
+      </c>
+      <c r="B218">
+        <v>14</v>
+      </c>
+      <c r="C218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>680</v>
+      </c>
+      <c r="B219">
+        <v>16</v>
+      </c>
+      <c r="C219">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>681</v>
+      </c>
+      <c r="B220">
+        <v>17</v>
+      </c>
+      <c r="C220">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>682</v>
+      </c>
+      <c r="B221">
+        <v>16</v>
+      </c>
+      <c r="C221">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>673</v>
+      </c>
+      <c r="B222">
+        <v>16</v>
+      </c>
+      <c r="C222">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>674</v>
+      </c>
+      <c r="B223">
+        <v>17</v>
+      </c>
+      <c r="C223">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>675</v>
+      </c>
+      <c r="B224">
+        <v>16</v>
+      </c>
+      <c r="C224">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>676</v>
+      </c>
+      <c r="B225">
+        <v>16</v>
+      </c>
+      <c r="C225">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>677</v>
+      </c>
+      <c r="B226">
+        <v>16</v>
+      </c>
+      <c r="C226">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>678</v>
+      </c>
+      <c r="B227">
+        <v>16</v>
+      </c>
+      <c r="C227">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>679</v>
+      </c>
+      <c r="B228">
+        <v>17</v>
+      </c>
+      <c r="C228">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>680</v>
+      </c>
+      <c r="B229">
+        <v>17</v>
+      </c>
+      <c r="C229">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>681</v>
+      </c>
+      <c r="B230">
+        <v>17</v>
+      </c>
+      <c r="C230">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>682</v>
+      </c>
+      <c r="B231">
+        <v>16</v>
+      </c>
+      <c r="C231">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>683</v>
+      </c>
+      <c r="B232">
+        <v>50</v>
+      </c>
+      <c r="C232">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>684</v>
+      </c>
+      <c r="B233">
+        <v>50</v>
+      </c>
+      <c r="C233">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>685</v>
+      </c>
+      <c r="B234">
+        <v>50</v>
+      </c>
+      <c r="C234">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>686</v>
+      </c>
+      <c r="B235">
+        <v>50</v>
+      </c>
+      <c r="C235">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>687</v>
+      </c>
+      <c r="B236">
+        <v>50</v>
+      </c>
+      <c r="C236">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>688</v>
+      </c>
+      <c r="B237">
+        <v>51</v>
+      </c>
+      <c r="C237">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>689</v>
+      </c>
+      <c r="B238">
+        <v>50</v>
+      </c>
+      <c r="C238">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>690</v>
+      </c>
+      <c r="B239">
+        <v>49</v>
+      </c>
+      <c r="C239">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>691</v>
+      </c>
+      <c r="B240">
+        <v>50</v>
+      </c>
+      <c r="C240">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>692</v>
+      </c>
+      <c r="B241">
+        <v>50</v>
+      </c>
+      <c r="C241">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>683</v>
+      </c>
+      <c r="B242">
+        <v>50</v>
+      </c>
+      <c r="C242">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>684</v>
+      </c>
+      <c r="B243">
+        <v>52</v>
+      </c>
+      <c r="C243">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>685</v>
+      </c>
+      <c r="B244">
+        <v>51</v>
+      </c>
+      <c r="C244">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>686</v>
+      </c>
+      <c r="B245">
+        <v>51</v>
+      </c>
+      <c r="C245">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>687</v>
+      </c>
+      <c r="B246">
+        <v>50</v>
+      </c>
+      <c r="C246">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>688</v>
+      </c>
+      <c r="B247">
+        <v>50</v>
+      </c>
+      <c r="C247">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>689</v>
+      </c>
+      <c r="B248">
+        <v>51</v>
+      </c>
+      <c r="C248">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>690</v>
+      </c>
+      <c r="B249">
+        <v>51</v>
+      </c>
+      <c r="C249">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>691</v>
+      </c>
+      <c r="B250">
+        <v>51</v>
+      </c>
+      <c r="C250">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>692</v>
+      </c>
+      <c r="B251">
+        <v>51</v>
+      </c>
+      <c r="C251">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>683</v>
+      </c>
+      <c r="B252">
+        <v>51</v>
+      </c>
+      <c r="C252">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>684</v>
+      </c>
+      <c r="B253">
+        <v>53</v>
+      </c>
+      <c r="C253">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>685</v>
+      </c>
+      <c r="B254">
+        <v>51</v>
+      </c>
+      <c r="C254">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>686</v>
+      </c>
+      <c r="B255">
+        <v>52</v>
+      </c>
+      <c r="C255">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>687</v>
+      </c>
+      <c r="B256">
+        <v>51</v>
+      </c>
+      <c r="C256">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>688</v>
+      </c>
+      <c r="B257">
+        <v>52</v>
+      </c>
+      <c r="C257">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>689</v>
+      </c>
+      <c r="B258">
+        <v>52</v>
+      </c>
+      <c r="C258">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>690</v>
+      </c>
+      <c r="B259">
+        <v>52</v>
+      </c>
+      <c r="C259">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>691</v>
+      </c>
+      <c r="B260">
+        <v>52</v>
+      </c>
+      <c r="C260">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>692</v>
+      </c>
+      <c r="B261">
+        <v>52</v>
+      </c>
+      <c r="C261">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>693</v>
+      </c>
+      <c r="B262">
+        <v>50</v>
+      </c>
+      <c r="C262">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>694</v>
+      </c>
+      <c r="B263">
+        <v>50</v>
+      </c>
+      <c r="C263">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>695</v>
+      </c>
+      <c r="B264">
+        <v>50</v>
+      </c>
+      <c r="C264">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>696</v>
+      </c>
+      <c r="B265">
+        <v>50</v>
+      </c>
+      <c r="C265">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>697</v>
+      </c>
+      <c r="B266">
+        <v>49</v>
+      </c>
+      <c r="C266">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>698</v>
+      </c>
+      <c r="B267">
+        <v>50</v>
+      </c>
+      <c r="C267">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>699</v>
+      </c>
+      <c r="B268">
+        <v>50</v>
+      </c>
+      <c r="C268">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>700</v>
+      </c>
+      <c r="B269">
+        <v>51</v>
+      </c>
+      <c r="C269">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>701</v>
+      </c>
+      <c r="B270">
+        <v>50</v>
+      </c>
+      <c r="C270">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>702</v>
+      </c>
+      <c r="B271">
+        <v>50</v>
+      </c>
+      <c r="C271">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>693</v>
+      </c>
+      <c r="B272">
+        <v>51</v>
+      </c>
+      <c r="C272">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>694</v>
+      </c>
+      <c r="B273">
+        <v>51</v>
+      </c>
+      <c r="C273">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>695</v>
+      </c>
+      <c r="B274">
+        <v>52</v>
+      </c>
+      <c r="C274">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>696</v>
+      </c>
+      <c r="B275">
+        <v>51</v>
+      </c>
+      <c r="C275">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>697</v>
+      </c>
+      <c r="B276">
+        <v>50</v>
+      </c>
+      <c r="C276">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>698</v>
+      </c>
+      <c r="B277">
+        <v>52</v>
+      </c>
+      <c r="C277">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>699</v>
+      </c>
+      <c r="B278">
+        <v>51</v>
+      </c>
+      <c r="C278">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>700</v>
+      </c>
+      <c r="B279">
+        <v>50</v>
+      </c>
+      <c r="C279">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>701</v>
+      </c>
+      <c r="B280">
+        <v>52</v>
+      </c>
+      <c r="C280">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>702</v>
+      </c>
+      <c r="B281">
+        <v>51</v>
+      </c>
+      <c r="C281">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>693</v>
+      </c>
+      <c r="B282">
+        <v>52</v>
+      </c>
+      <c r="C282">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>694</v>
+      </c>
+      <c r="B283">
+        <v>52</v>
+      </c>
+      <c r="C283">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>695</v>
+      </c>
+      <c r="B284">
+        <v>53</v>
+      </c>
+      <c r="C284">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>696</v>
+      </c>
+      <c r="B285">
+        <v>52</v>
+      </c>
+      <c r="C285">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>697</v>
+      </c>
+      <c r="B286">
+        <v>52</v>
+      </c>
+      <c r="C286">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>698</v>
+      </c>
+      <c r="B287">
+        <v>52</v>
+      </c>
+      <c r="C287">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>699</v>
+      </c>
+      <c r="B288">
+        <v>52</v>
+      </c>
+      <c r="C288">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>700</v>
+      </c>
+      <c r="B289">
+        <v>51</v>
+      </c>
+      <c r="C289">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>701</v>
+      </c>
+      <c r="B290">
+        <v>52</v>
+      </c>
+      <c r="C290">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>702</v>
+      </c>
+      <c r="B291">
+        <v>52</v>
+      </c>
+      <c r="C291">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>703</v>
+      </c>
+      <c r="B292">
+        <v>74</v>
+      </c>
+      <c r="C292">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>704</v>
+      </c>
+      <c r="B293">
+        <v>74</v>
+      </c>
+      <c r="C293">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>705</v>
+      </c>
+      <c r="B294">
+        <v>75</v>
+      </c>
+      <c r="C294">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>706</v>
+      </c>
+      <c r="B295">
+        <v>74</v>
+      </c>
+      <c r="C295">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>707</v>
+      </c>
+      <c r="B296">
+        <v>74</v>
+      </c>
+      <c r="C296">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>708</v>
+      </c>
+      <c r="B297">
+        <v>74</v>
+      </c>
+      <c r="C297">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>709</v>
+      </c>
+      <c r="B298">
+        <v>74</v>
+      </c>
+      <c r="C298">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>710</v>
+      </c>
+      <c r="B299">
+        <v>75</v>
+      </c>
+      <c r="C299">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>711</v>
+      </c>
+      <c r="B300">
+        <v>75</v>
+      </c>
+      <c r="C300">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>712</v>
+      </c>
+      <c r="B301">
+        <v>75</v>
+      </c>
+      <c r="C301">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>703</v>
+      </c>
+      <c r="B302">
+        <v>75</v>
+      </c>
+      <c r="C302">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>704</v>
+      </c>
+      <c r="B303">
+        <v>75</v>
+      </c>
+      <c r="C303">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>705</v>
+      </c>
+      <c r="B304">
+        <v>74</v>
+      </c>
+      <c r="C304">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>706</v>
+      </c>
+      <c r="B305">
+        <v>76</v>
+      </c>
+      <c r="C305">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>707</v>
+      </c>
+      <c r="B306">
+        <v>74</v>
+      </c>
+      <c r="C306">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>708</v>
+      </c>
+      <c r="B307">
+        <v>75</v>
+      </c>
+      <c r="C307">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>709</v>
+      </c>
+      <c r="B308">
+        <v>76</v>
+      </c>
+      <c r="C308">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>710</v>
+      </c>
+      <c r="B309">
+        <v>75</v>
+      </c>
+      <c r="C309">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>711</v>
+      </c>
+      <c r="B310">
+        <v>75</v>
+      </c>
+      <c r="C310">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>712</v>
+      </c>
+      <c r="B311">
+        <v>75</v>
+      </c>
+      <c r="C311">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>703</v>
+      </c>
+      <c r="B312">
+        <v>77</v>
+      </c>
+      <c r="C312">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>704</v>
+      </c>
+      <c r="B313">
+        <v>75</v>
+      </c>
+      <c r="C313">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>705</v>
+      </c>
+      <c r="B314">
+        <v>75</v>
+      </c>
+      <c r="C314">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>706</v>
+      </c>
+      <c r="B315">
+        <v>77</v>
+      </c>
+      <c r="C315">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>707</v>
+      </c>
+      <c r="B316">
+        <v>76</v>
+      </c>
+      <c r="C316">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>708</v>
+      </c>
+      <c r="B317">
+        <v>76</v>
+      </c>
+      <c r="C317">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>709</v>
+      </c>
+      <c r="B318">
+        <v>75</v>
+      </c>
+      <c r="C318">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>710</v>
+      </c>
+      <c r="B319">
+        <v>76</v>
+      </c>
+      <c r="C319">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>711</v>
+      </c>
+      <c r="B320">
+        <v>78</v>
+      </c>
+      <c r="C320">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>712</v>
+      </c>
+      <c r="B321">
+        <v>76</v>
+      </c>
+      <c r="C321">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>713</v>
+      </c>
+      <c r="B322">
+        <v>75</v>
+      </c>
+      <c r="C322">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>714</v>
+      </c>
+      <c r="B323">
+        <v>74</v>
+      </c>
+      <c r="C323">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>715</v>
+      </c>
+      <c r="B324">
+        <v>75</v>
+      </c>
+      <c r="C324">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>716</v>
+      </c>
+      <c r="B325">
+        <v>75</v>
+      </c>
+      <c r="C325">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>717</v>
+      </c>
+      <c r="B326">
+        <v>74</v>
+      </c>
+      <c r="C326">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>718</v>
+      </c>
+      <c r="B327">
+        <v>75</v>
+      </c>
+      <c r="C327">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>719</v>
+      </c>
+      <c r="B328">
+        <v>74</v>
+      </c>
+      <c r="C328">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>720</v>
+      </c>
+      <c r="B329">
+        <v>75</v>
+      </c>
+      <c r="C329">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>721</v>
+      </c>
+      <c r="B330">
+        <v>74</v>
+      </c>
+      <c r="C330">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>722</v>
+      </c>
+      <c r="B331">
+        <v>74</v>
+      </c>
+      <c r="C331">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>713</v>
+      </c>
+      <c r="B332">
+        <v>76</v>
+      </c>
+      <c r="C332">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>714</v>
+      </c>
+      <c r="B333">
+        <v>75</v>
+      </c>
+      <c r="C333">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>715</v>
+      </c>
+      <c r="B334">
+        <v>76</v>
+      </c>
+      <c r="C334">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>716</v>
+      </c>
+      <c r="B335">
+        <v>75</v>
+      </c>
+      <c r="C335">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>717</v>
+      </c>
+      <c r="B336">
+        <v>76</v>
+      </c>
+      <c r="C336">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>718</v>
+      </c>
+      <c r="B337">
+        <v>76</v>
+      </c>
+      <c r="C337">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>719</v>
+      </c>
+      <c r="B338">
+        <v>75</v>
+      </c>
+      <c r="C338">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>720</v>
+      </c>
+      <c r="B339">
+        <v>76</v>
+      </c>
+      <c r="C339">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>721</v>
+      </c>
+      <c r="B340">
+        <v>75</v>
+      </c>
+      <c r="C340">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>722</v>
+      </c>
+      <c r="B341">
+        <v>75</v>
+      </c>
+      <c r="C341">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>713</v>
+      </c>
+      <c r="B342">
+        <v>76</v>
+      </c>
+      <c r="C342">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>714</v>
+      </c>
+      <c r="B343">
+        <v>77</v>
+      </c>
+      <c r="C343">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>715</v>
+      </c>
+      <c r="B344">
+        <v>76</v>
+      </c>
+      <c r="C344">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>716</v>
+      </c>
+      <c r="B345">
+        <v>75</v>
+      </c>
+      <c r="C345">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>717</v>
+      </c>
+      <c r="B346">
+        <v>76</v>
+      </c>
+      <c r="C346">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>718</v>
+      </c>
+      <c r="B347">
+        <v>75</v>
+      </c>
+      <c r="C347">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>719</v>
+      </c>
+      <c r="B348">
+        <v>77</v>
+      </c>
+      <c r="C348">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>720</v>
+      </c>
+      <c r="B349">
+        <v>75</v>
+      </c>
+      <c r="C349">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>721</v>
+      </c>
+      <c r="B350">
+        <v>77</v>
+      </c>
+      <c r="C350">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>722</v>
+      </c>
+      <c r="B351">
+        <v>77</v>
+      </c>
+      <c r="C351">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>723</v>
+      </c>
+      <c r="B352">
+        <v>99</v>
+      </c>
+      <c r="C352">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>724</v>
+      </c>
+      <c r="B353">
+        <v>99</v>
+      </c>
+      <c r="C353">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>725</v>
+      </c>
+      <c r="B354">
+        <v>98</v>
+      </c>
+      <c r="C354">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>726</v>
+      </c>
+      <c r="B355">
+        <v>99</v>
+      </c>
+      <c r="C355">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>727</v>
+      </c>
+      <c r="B356">
+        <v>99</v>
+      </c>
+      <c r="C356">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>728</v>
+      </c>
+      <c r="B357">
+        <v>98</v>
+      </c>
+      <c r="C357">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>729</v>
+      </c>
+      <c r="B358">
+        <v>99</v>
+      </c>
+      <c r="C358">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>730</v>
+      </c>
+      <c r="B359">
+        <v>99</v>
+      </c>
+      <c r="C359">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>731</v>
+      </c>
+      <c r="B360">
+        <v>98</v>
+      </c>
+      <c r="C360">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>732</v>
+      </c>
+      <c r="B361">
+        <v>98</v>
+      </c>
+      <c r="C361">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>723</v>
+      </c>
+      <c r="B362">
+        <v>100</v>
+      </c>
+      <c r="C362">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>724</v>
+      </c>
+      <c r="B363">
+        <v>100</v>
+      </c>
+      <c r="C363">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>725</v>
+      </c>
+      <c r="B364">
+        <v>99</v>
+      </c>
+      <c r="C364">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>726</v>
+      </c>
+      <c r="B365">
+        <v>99</v>
+      </c>
+      <c r="C365">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>727</v>
+      </c>
+      <c r="B366">
+        <v>99</v>
+      </c>
+      <c r="C366">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>728</v>
+      </c>
+      <c r="B367">
+        <v>100</v>
+      </c>
+      <c r="C367">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>729</v>
+      </c>
+      <c r="B368">
+        <v>100</v>
+      </c>
+      <c r="C368">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>730</v>
+      </c>
+      <c r="B369">
+        <v>99</v>
+      </c>
+      <c r="C369">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>731</v>
+      </c>
+      <c r="B370">
+        <v>100</v>
+      </c>
+      <c r="C370">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>732</v>
+      </c>
+      <c r="B371">
+        <v>99</v>
+      </c>
+      <c r="C371">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>723</v>
+      </c>
+      <c r="B372">
+        <v>100</v>
+      </c>
+      <c r="C372">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>724</v>
+      </c>
+      <c r="B373">
+        <v>100</v>
+      </c>
+      <c r="C373">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>725</v>
+      </c>
+      <c r="B374">
+        <v>100</v>
+      </c>
+      <c r="C374">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>726</v>
+      </c>
+      <c r="B375">
+        <v>99</v>
+      </c>
+      <c r="C375">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>727</v>
+      </c>
+      <c r="B376">
+        <v>100</v>
+      </c>
+      <c r="C376">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>728</v>
+      </c>
+      <c r="B377">
+        <v>101</v>
+      </c>
+      <c r="C377">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>729</v>
+      </c>
+      <c r="B378">
+        <v>100</v>
+      </c>
+      <c r="C378">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>730</v>
+      </c>
+      <c r="B379">
+        <v>100</v>
+      </c>
+      <c r="C379">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>731</v>
+      </c>
+      <c r="B380">
+        <v>101</v>
+      </c>
+      <c r="C380">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>732</v>
+      </c>
+      <c r="B381">
+        <v>101</v>
+      </c>
+      <c r="C381">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>733</v>
+      </c>
+      <c r="B382">
+        <v>98</v>
+      </c>
+      <c r="C382">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>734</v>
+      </c>
+      <c r="B383">
+        <v>98</v>
+      </c>
+      <c r="C383">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>735</v>
+      </c>
+      <c r="B384">
+        <v>99</v>
+      </c>
+      <c r="C384">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>736</v>
+      </c>
+      <c r="B385">
+        <v>99</v>
+      </c>
+      <c r="C385">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>737</v>
+      </c>
+      <c r="B386">
+        <v>99</v>
+      </c>
+      <c r="C386">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>738</v>
+      </c>
+      <c r="B387">
+        <v>99</v>
+      </c>
+      <c r="C387">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>739</v>
+      </c>
+      <c r="B388">
+        <v>99</v>
+      </c>
+      <c r="C388">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>740</v>
+      </c>
+      <c r="B389">
+        <v>98</v>
+      </c>
+      <c r="C389">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>741</v>
+      </c>
+      <c r="B390">
+        <v>98</v>
+      </c>
+      <c r="C390">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>742</v>
+      </c>
+      <c r="B391">
+        <v>98</v>
+      </c>
+      <c r="C391">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>733</v>
+      </c>
+      <c r="B392">
+        <v>100</v>
+      </c>
+      <c r="C392">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>734</v>
+      </c>
+      <c r="B393">
+        <v>99</v>
+      </c>
+      <c r="C393">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>735</v>
+      </c>
+      <c r="B394">
+        <v>100</v>
+      </c>
+      <c r="C394">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>736</v>
+      </c>
+      <c r="B395">
+        <v>99</v>
+      </c>
+      <c r="C395">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>737</v>
+      </c>
+      <c r="B396">
+        <v>99</v>
+      </c>
+      <c r="C396">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>738</v>
+      </c>
+      <c r="B397">
+        <v>99</v>
+      </c>
+      <c r="C397">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>739</v>
+      </c>
+      <c r="B398">
+        <v>100</v>
+      </c>
+      <c r="C398">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>740</v>
+      </c>
+      <c r="B399">
+        <v>99</v>
+      </c>
+      <c r="C399">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>741</v>
+      </c>
+      <c r="B400">
+        <v>99</v>
+      </c>
+      <c r="C400">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>742</v>
+      </c>
+      <c r="B401">
+        <v>99</v>
+      </c>
+      <c r="C401">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>733</v>
+      </c>
+      <c r="B402">
+        <v>101</v>
+      </c>
+      <c r="C402">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>734</v>
+      </c>
+      <c r="B403">
+        <v>100</v>
+      </c>
+      <c r="C403">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>735</v>
+      </c>
+      <c r="B404">
+        <v>100</v>
+      </c>
+      <c r="C404">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>736</v>
+      </c>
+      <c r="B405">
+        <v>100</v>
+      </c>
+      <c r="C405">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>737</v>
+      </c>
+      <c r="B406">
+        <v>99</v>
+      </c>
+      <c r="C406">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>738</v>
+      </c>
+      <c r="B407">
+        <v>99</v>
+      </c>
+      <c r="C407">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>739</v>
+      </c>
+      <c r="B408">
+        <v>101</v>
+      </c>
+      <c r="C408">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>740</v>
+      </c>
+      <c r="B409">
+        <v>99</v>
+      </c>
+      <c r="C409">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>741</v>
+      </c>
+      <c r="B410">
+        <v>100</v>
+      </c>
+      <c r="C410">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>742</v>
+      </c>
+      <c r="B411">
+        <v>100</v>
+      </c>
+      <c r="C411">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F3F2CD-6D42-4B68-888C-B0F62E863B8F}">
+  <dimension ref="A1:C491"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
